--- a/data/output/rs_analysis.xlsx
+++ b/data/output/rs_analysis.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F563"/>
+  <dimension ref="A1:F570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7181,7 +7181,7 @@
         <v>127.619</v>
       </c>
       <c r="D339">
-        <v>110.521</v>
+        <v>111.009</v>
       </c>
       <c r="E339">
         <v>153.754</v>
@@ -7198,7 +7198,7 @@
         <v>100</v>
       </c>
       <c r="C340">
-        <v>129.102</v>
+        <v>129.672</v>
       </c>
       <c r="D340">
         <v>112.479</v>
@@ -7207,7 +7207,7 @@
         <v>155.89</v>
       </c>
       <c r="F340">
-        <v>129.386</v>
+        <v>129.957</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7501,7 +7501,7 @@
         <v>124.508</v>
       </c>
       <c r="D355">
-        <v>130.647</v>
+        <v>130.506</v>
       </c>
       <c r="E355">
         <v>171.437</v>
@@ -7518,7 +7518,7 @@
         <v>100</v>
       </c>
       <c r="C356">
-        <v>123.278</v>
+        <v>123.144</v>
       </c>
       <c r="D356">
         <v>130.356</v>
@@ -7544,10 +7544,10 @@
         <v>131.175</v>
       </c>
       <c r="E357">
-        <v>172.147</v>
+        <v>171.961</v>
       </c>
       <c r="F357">
-        <v>152.11</v>
+        <v>151.945</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -10841,7 +10841,7 @@
         <v>118.753</v>
       </c>
       <c r="D522">
-        <v>131.985</v>
+        <v>132.477</v>
       </c>
       <c r="E522">
         <v>159.766</v>
@@ -10858,7 +10858,7 @@
         <v>100</v>
       </c>
       <c r="C523">
-        <v>117.479</v>
+        <v>117.917</v>
       </c>
       <c r="D523">
         <v>132.817</v>
@@ -10901,10 +10901,10 @@
         <v>119.209</v>
       </c>
       <c r="D525">
-        <v>133.684</v>
+        <v>134.183</v>
       </c>
       <c r="E525">
-        <v>157.727</v>
+        <v>158.315</v>
       </c>
       <c r="F525">
         <v>142.497</v>
@@ -10918,16 +10918,16 @@
         <v>100</v>
       </c>
       <c r="C526">
-        <v>120.584</v>
+        <v>121.034</v>
       </c>
       <c r="D526">
-        <v>135.394</v>
+        <v>135.645</v>
       </c>
       <c r="E526">
         <v>158.556</v>
       </c>
       <c r="F526">
-        <v>139.031</v>
+        <v>139.549</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -10938,7 +10938,7 @@
         <v>100</v>
       </c>
       <c r="C527">
-        <v>120.012</v>
+        <v>120.234</v>
       </c>
       <c r="D527">
         <v>134.571</v>
@@ -10964,7 +10964,7 @@
         <v>136.44</v>
       </c>
       <c r="E528">
-        <v>158.715</v>
+        <v>159.307</v>
       </c>
       <c r="F528">
         <v>138.873</v>
@@ -10984,10 +10984,10 @@
         <v>138.055</v>
       </c>
       <c r="E529">
-        <v>161.43</v>
+        <v>161.729</v>
       </c>
       <c r="F529">
-        <v>142.677</v>
+        <v>143.209</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -11007,7 +11007,7 @@
         <v>161.247</v>
       </c>
       <c r="F530">
-        <v>143.156</v>
+        <v>143.421</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -11668,6 +11668,146 @@
       </c>
       <c r="F563">
         <v>148.803</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B564">
+        <v>100</v>
+      </c>
+      <c r="C564">
+        <v>121.035</v>
+      </c>
+      <c r="D564">
+        <v>142.597</v>
+      </c>
+      <c r="E564">
+        <v>164.067</v>
+      </c>
+      <c r="F564">
+        <v>145.329</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B565">
+        <v>100</v>
+      </c>
+      <c r="C565">
+        <v>117.476</v>
+      </c>
+      <c r="D565">
+        <v>141.468</v>
+      </c>
+      <c r="E565">
+        <v>164.742</v>
+      </c>
+      <c r="F565">
+        <v>144.48</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6">
+      <c r="A566" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B566">
+        <v>100</v>
+      </c>
+      <c r="C566">
+        <v>117.084</v>
+      </c>
+      <c r="D566">
+        <v>141.235</v>
+      </c>
+      <c r="E566">
+        <v>166.225</v>
+      </c>
+      <c r="F566">
+        <v>145.639</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6">
+      <c r="A567" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B567">
+        <v>100</v>
+      </c>
+      <c r="C567">
+        <v>116.235</v>
+      </c>
+      <c r="D567">
+        <v>141.164</v>
+      </c>
+      <c r="E567">
+        <v>161.933</v>
+      </c>
+      <c r="F567">
+        <v>145.166</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6">
+      <c r="A568" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B568">
+        <v>100</v>
+      </c>
+      <c r="C568">
+        <v>116.798</v>
+      </c>
+      <c r="D568">
+        <v>142.563</v>
+      </c>
+      <c r="E568">
+        <v>159.301</v>
+      </c>
+      <c r="F568">
+        <v>140.955</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B569">
+        <v>100</v>
+      </c>
+      <c r="C569">
+        <v>119.875</v>
+      </c>
+      <c r="D569">
+        <v>145.004</v>
+      </c>
+      <c r="E569">
+        <v>159.008</v>
+      </c>
+      <c r="F569">
+        <v>140.387</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6">
+      <c r="A570" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B570">
+        <v>100</v>
+      </c>
+      <c r="C570">
+        <v>122.73</v>
+      </c>
+      <c r="D570">
+        <v>145.771</v>
+      </c>
+      <c r="E570">
+        <v>160.088</v>
+      </c>
+      <c r="F570">
+        <v>138.251</v>
       </c>
     </row>
   </sheetData>
@@ -11677,7 +11817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C563"/>
+  <dimension ref="A1:C570"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15428,10 +15568,10 @@
         <v>45082</v>
       </c>
       <c r="B341">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -15442,7 +15582,7 @@
         <v>485</v>
       </c>
       <c r="C342">
-        <v>-1.026</v>
+        <v>-0.206</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -15615,10 +15755,10 @@
         <v>45107</v>
       </c>
       <c r="B358">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C358">
-        <v>-0.203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -15629,7 +15769,7 @@
         <v>495</v>
       </c>
       <c r="C359">
-        <v>0.405</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -17474,10 +17614,10 @@
         <v>45365</v>
       </c>
       <c r="B527">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="C527">
-        <v>1.46</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -17488,7 +17628,7 @@
         <v>1025</v>
       </c>
       <c r="C528">
-        <v>-0.971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -17507,10 +17647,10 @@
         <v>45370</v>
       </c>
       <c r="B530">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="C530">
-        <v>0.971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -17518,10 +17658,10 @@
         <v>45371</v>
       </c>
       <c r="B531">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C531">
-        <v>0</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -17532,7 +17672,7 @@
         <v>1030</v>
       </c>
       <c r="C532">
-        <v>-0.484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -17874,6 +18014,83 @@
       </c>
       <c r="C563">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B564">
+        <v>1045</v>
+      </c>
+      <c r="C564">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B565">
+        <v>1070</v>
+      </c>
+      <c r="C565">
+        <v>2.364</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B566">
+        <v>1100</v>
+      </c>
+      <c r="C566">
+        <v>2.765</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B567">
+        <v>1100</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B568">
+        <v>1105</v>
+      </c>
+      <c r="C568">
+        <v>0.454</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B569">
+        <v>1180</v>
+      </c>
+      <c r="C569">
+        <v>6.567</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B570">
+        <v>1230</v>
+      </c>
+      <c r="C570">
+        <v>4.15</v>
       </c>
     </row>
   </sheetData>
@@ -17883,7 +18100,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C563"/>
+  <dimension ref="A1:C570"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24082,6 +24299,83 @@
         <v>7.986</v>
       </c>
     </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B564">
+        <v>885</v>
+      </c>
+      <c r="C564">
+        <v>-3.715</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B565">
+        <v>869</v>
+      </c>
+      <c r="C565">
+        <v>-1.824</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B566">
+        <v>902.5</v>
+      </c>
+      <c r="C566">
+        <v>3.783</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B567">
+        <v>919</v>
+      </c>
+      <c r="C567">
+        <v>1.812</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B568">
+        <v>938</v>
+      </c>
+      <c r="C568">
+        <v>2.046</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B569">
+        <v>966</v>
+      </c>
+      <c r="C569">
+        <v>2.941</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B570">
+        <v>1030</v>
+      </c>
+      <c r="C570">
+        <v>6.415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24089,7 +24383,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C563"/>
+  <dimension ref="A1:C570"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30288,6 +30582,83 @@
         <v>-0.587</v>
       </c>
     </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B564">
+        <v>3712</v>
+      </c>
+      <c r="C564">
+        <v>-0.698</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B565">
+        <v>3816.25</v>
+      </c>
+      <c r="C565">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B566">
+        <v>3989</v>
+      </c>
+      <c r="C566">
+        <v>4.427</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B567">
+        <v>4003</v>
+      </c>
+      <c r="C567">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B568">
+        <v>3889</v>
+      </c>
+      <c r="C568">
+        <v>-2.889</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B569">
+        <v>4088</v>
+      </c>
+      <c r="C569">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B570">
+        <v>4200.9</v>
+      </c>
+      <c r="C570">
+        <v>2.724</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30295,7 +30666,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C563"/>
+  <dimension ref="A1:C570"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -36494,6 +36865,83 @@
         <v>-7.265</v>
       </c>
     </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B564">
+        <v>24625.85</v>
+      </c>
+      <c r="C564">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B565">
+        <v>25074.8</v>
+      </c>
+      <c r="C565">
+        <v>1.807</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B566">
+        <v>26287</v>
+      </c>
+      <c r="C566">
+        <v>4.721</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B567">
+        <v>26060</v>
+      </c>
+      <c r="C567">
+        <v>-0.867</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B568">
+        <v>25900</v>
+      </c>
+      <c r="C568">
+        <v>-0.616</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B569">
+        <v>27200</v>
+      </c>
+      <c r="C569">
+        <v>4.897</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B570">
+        <v>28218.45</v>
+      </c>
+      <c r="C570">
+        <v>3.676</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36501,7 +36949,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C563"/>
+  <dimension ref="A1:C570"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42700,6 +43148,83 @@
         <v>-0.916</v>
       </c>
     </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B564">
+        <v>1027</v>
+      </c>
+      <c r="C564">
+        <v>-5.678</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B565">
+        <v>1045.1</v>
+      </c>
+      <c r="C565">
+        <v>1.747</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B566">
+        <v>1078</v>
+      </c>
+      <c r="C566">
+        <v>3.099</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B567">
+        <v>1071.5</v>
+      </c>
+      <c r="C567">
+        <v>-0.605</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B568">
+        <v>1050</v>
+      </c>
+      <c r="C568">
+        <v>-2.027</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B569">
+        <v>1095.75</v>
+      </c>
+      <c r="C569">
+        <v>4.265</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B570">
+        <v>1085</v>
+      </c>
+      <c r="C570">
+        <v>-0.986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/output/rs_analysis.xlsx
+++ b/data/output/rs_analysis.xlsx
@@ -6841,16 +6841,16 @@
         <v>45049</v>
       </c>
       <c r="B322">
-        <v>116.98</v>
+        <v>116.711</v>
       </c>
       <c r="C322">
-        <v>105.092</v>
+        <v>104.85</v>
       </c>
       <c r="D322">
-        <v>150.511</v>
+        <v>150.164</v>
       </c>
       <c r="E322">
-        <v>122.321</v>
+        <v>122.039</v>
       </c>
       <c r="F322">
         <v>100</v>
@@ -10921,16 +10921,16 @@
         <v>45363</v>
       </c>
       <c r="B526">
-        <v>119.433</v>
+        <v>120.118</v>
       </c>
       <c r="C526">
-        <v>134.435</v>
+        <v>135.206</v>
       </c>
       <c r="D526">
-        <v>158.613</v>
+        <v>159.522</v>
       </c>
       <c r="E526">
-        <v>142.497</v>
+        <v>143.314</v>
       </c>
       <c r="F526">
         <v>100</v>
@@ -10944,10 +10944,10 @@
         <v>120.584</v>
       </c>
       <c r="C527">
-        <v>135.394</v>
+        <v>135.395</v>
       </c>
       <c r="D527">
-        <v>157.967</v>
+        <v>157.968</v>
       </c>
       <c r="E527">
         <v>139.031</v>
@@ -10961,10 +10961,10 @@
         <v>45365</v>
       </c>
       <c r="B528">
-        <v>120.011</v>
+        <v>120.012</v>
       </c>
       <c r="C528">
-        <v>134.322</v>
+        <v>134.323</v>
       </c>
       <c r="D528">
         <v>158.05</v>
@@ -10984,7 +10984,7 @@
         <v>120.12</v>
       </c>
       <c r="C529">
-        <v>136.184</v>
+        <v>136.185</v>
       </c>
       <c r="D529">
         <v>159.307</v>
@@ -11001,16 +11001,16 @@
         <v>45369</v>
       </c>
       <c r="B530">
-        <v>120.047</v>
+        <v>120.501</v>
       </c>
       <c r="C530">
-        <v>137.796</v>
+        <v>138.317</v>
       </c>
       <c r="D530">
-        <v>162.031</v>
+        <v>162.644</v>
       </c>
       <c r="E530">
-        <v>143.209</v>
+        <v>143.75</v>
       </c>
       <c r="F530">
         <v>100</v>
@@ -11024,13 +11024,13 @@
         <v>123.137</v>
       </c>
       <c r="C531">
-        <v>137.077</v>
+        <v>137.078</v>
       </c>
       <c r="D531">
-        <v>161.548</v>
+        <v>161.549</v>
       </c>
       <c r="E531">
-        <v>143.689</v>
+        <v>143.69</v>
       </c>
       <c r="F531">
         <v>100</v>
@@ -11044,13 +11044,13 @@
         <v>124.791</v>
       </c>
       <c r="C532">
-        <v>138.961</v>
+        <v>138.962</v>
       </c>
       <c r="D532">
-        <v>162.443</v>
+        <v>162.444</v>
       </c>
       <c r="E532">
-        <v>146.697</v>
+        <v>146.698</v>
       </c>
       <c r="F532">
         <v>100</v>
@@ -11064,10 +11064,10 @@
         <v>126.627</v>
       </c>
       <c r="C533">
-        <v>139.752</v>
+        <v>139.753</v>
       </c>
       <c r="D533">
-        <v>164.279</v>
+        <v>164.28</v>
       </c>
       <c r="E533">
         <v>145.734</v>
@@ -11081,16 +11081,16 @@
         <v>45373</v>
       </c>
       <c r="B534">
-        <v>126.212</v>
+        <v>126.213</v>
       </c>
       <c r="C534">
         <v>140.426</v>
       </c>
       <c r="D534">
-        <v>164.699</v>
+        <v>164.7</v>
       </c>
       <c r="E534">
-        <v>147.533</v>
+        <v>147.534</v>
       </c>
       <c r="F534">
         <v>100</v>
@@ -11107,10 +11107,10 @@
         <v>140.223</v>
       </c>
       <c r="D535">
-        <v>164.478</v>
+        <v>164.479</v>
       </c>
       <c r="E535">
-        <v>146.331</v>
+        <v>146.332</v>
       </c>
       <c r="F535">
         <v>100</v>
@@ -11124,7 +11124,7 @@
         <v>126.712</v>
       </c>
       <c r="C536">
-        <v>140.1</v>
+        <v>140.101</v>
       </c>
       <c r="D536">
         <v>164.09</v>
@@ -11144,13 +11144,13 @@
         <v>125.585</v>
       </c>
       <c r="C537">
-        <v>140.674</v>
+        <v>140.675</v>
       </c>
       <c r="D537">
         <v>164.995</v>
       </c>
       <c r="E537">
-        <v>146.695</v>
+        <v>146.696</v>
       </c>
       <c r="F537">
         <v>100</v>
@@ -11161,13 +11161,13 @@
         <v>45385</v>
       </c>
       <c r="B538">
-        <v>123.55</v>
+        <v>123.551</v>
       </c>
       <c r="C538">
         <v>140.656</v>
       </c>
       <c r="D538">
-        <v>165.844</v>
+        <v>165.845</v>
       </c>
       <c r="E538">
         <v>148.207</v>
@@ -11204,13 +11204,13 @@
         <v>122.718</v>
       </c>
       <c r="C540">
-        <v>142.642</v>
+        <v>142.643</v>
       </c>
       <c r="D540">
-        <v>166.946</v>
+        <v>166.947</v>
       </c>
       <c r="E540">
-        <v>149.522</v>
+        <v>149.523</v>
       </c>
       <c r="F540">
         <v>100</v>
@@ -11221,16 +11221,16 @@
         <v>45390</v>
       </c>
       <c r="B541">
-        <v>124.379</v>
+        <v>124.38</v>
       </c>
       <c r="C541">
-        <v>142.88</v>
+        <v>142.881</v>
       </c>
       <c r="D541">
         <v>167.715</v>
       </c>
       <c r="E541">
-        <v>149.445</v>
+        <v>149.446</v>
       </c>
       <c r="F541">
         <v>100</v>
@@ -11241,16 +11241,16 @@
         <v>45391</v>
       </c>
       <c r="B542">
-        <v>126.003</v>
+        <v>126.004</v>
       </c>
       <c r="C542">
-        <v>143.245</v>
+        <v>143.246</v>
       </c>
       <c r="D542">
-        <v>166.971</v>
+        <v>166.972</v>
       </c>
       <c r="E542">
-        <v>148.224</v>
+        <v>148.225</v>
       </c>
       <c r="F542">
         <v>100</v>
@@ -11261,13 +11261,13 @@
         <v>45392</v>
       </c>
       <c r="B543">
-        <v>124.654</v>
+        <v>124.655</v>
       </c>
       <c r="C543">
-        <v>143.774</v>
+        <v>143.775</v>
       </c>
       <c r="D543">
-        <v>166.663</v>
+        <v>166.664</v>
       </c>
       <c r="E543">
         <v>146.991</v>
@@ -11281,13 +11281,13 @@
         <v>45393</v>
       </c>
       <c r="B544">
-        <v>124.923</v>
+        <v>124.924</v>
       </c>
       <c r="C544">
-        <v>145.036</v>
+        <v>145.037</v>
       </c>
       <c r="D544">
-        <v>167.05</v>
+        <v>167.051</v>
       </c>
       <c r="E544">
         <v>147.019</v>
@@ -11307,7 +11307,7 @@
         <v>144.67</v>
       </c>
       <c r="D545">
-        <v>165.884</v>
+        <v>165.885</v>
       </c>
       <c r="E545">
         <v>144.806</v>
@@ -11324,13 +11324,13 @@
         <v>125.28</v>
       </c>
       <c r="C546">
-        <v>142.28</v>
+        <v>142.281</v>
       </c>
       <c r="D546">
         <v>164.321</v>
       </c>
       <c r="E546">
-        <v>142.199</v>
+        <v>142.2</v>
       </c>
       <c r="F546">
         <v>100</v>
@@ -11344,13 +11344,13 @@
         <v>125.089</v>
       </c>
       <c r="C547">
-        <v>141.512</v>
+        <v>141.513</v>
       </c>
       <c r="D547">
         <v>163.017</v>
       </c>
       <c r="E547">
-        <v>141.658</v>
+        <v>141.659</v>
       </c>
       <c r="F547">
         <v>100</v>
@@ -11364,13 +11364,13 @@
         <v>122.749</v>
       </c>
       <c r="C548">
-        <v>141.312</v>
+        <v>141.313</v>
       </c>
       <c r="D548">
-        <v>162.189</v>
+        <v>162.19</v>
       </c>
       <c r="E548">
-        <v>140.65</v>
+        <v>140.651</v>
       </c>
       <c r="F548">
         <v>100</v>
@@ -11387,10 +11387,10 @@
         <v>142.118</v>
       </c>
       <c r="D549">
-        <v>161.848</v>
+        <v>161.849</v>
       </c>
       <c r="E549">
-        <v>141.224</v>
+        <v>141.225</v>
       </c>
       <c r="F549">
         <v>100</v>
@@ -11404,10 +11404,10 @@
         <v>123.894</v>
       </c>
       <c r="C550">
-        <v>143.127</v>
+        <v>143.128</v>
       </c>
       <c r="D550">
-        <v>162.552</v>
+        <v>162.553</v>
       </c>
       <c r="E550">
         <v>141.973</v>
@@ -11427,7 +11427,7 @@
         <v>145.057</v>
       </c>
       <c r="D551">
-        <v>163.888</v>
+        <v>163.889</v>
       </c>
       <c r="E551">
         <v>143.2</v>
@@ -11441,16 +11441,16 @@
         <v>45405</v>
       </c>
       <c r="B552">
-        <v>122.749</v>
+        <v>122.75</v>
       </c>
       <c r="C552">
         <v>144.524</v>
       </c>
       <c r="D552">
-        <v>163.932</v>
+        <v>163.933</v>
       </c>
       <c r="E552">
-        <v>141.579</v>
+        <v>141.58</v>
       </c>
       <c r="F552">
         <v>100</v>
@@ -11461,16 +11461,16 @@
         <v>45406</v>
       </c>
       <c r="B553">
-        <v>121.287</v>
+        <v>121.288</v>
       </c>
       <c r="C553">
-        <v>142.696</v>
+        <v>142.697</v>
       </c>
       <c r="D553">
-        <v>162.675</v>
+        <v>162.676</v>
       </c>
       <c r="E553">
-        <v>141.182</v>
+        <v>141.183</v>
       </c>
       <c r="F553">
         <v>100</v>
@@ -11481,7 +11481,7 @@
         <v>45407</v>
       </c>
       <c r="B554">
-        <v>122.053</v>
+        <v>122.054</v>
       </c>
       <c r="C554">
         <v>143.06</v>
@@ -11490,7 +11490,7 @@
         <v>162.31</v>
       </c>
       <c r="E554">
-        <v>140.543</v>
+        <v>140.544</v>
       </c>
       <c r="F554">
         <v>100</v>
@@ -11501,7 +11501,7 @@
         <v>45408</v>
       </c>
       <c r="B555">
-        <v>122.163</v>
+        <v>122.164</v>
       </c>
       <c r="C555">
         <v>144.514</v>
@@ -11521,16 +11521,16 @@
         <v>45411</v>
       </c>
       <c r="B556">
-        <v>123.61</v>
+        <v>123.611</v>
       </c>
       <c r="C556">
-        <v>145.999</v>
+        <v>146</v>
       </c>
       <c r="D556">
         <v>165.458</v>
       </c>
       <c r="E556">
-        <v>142.734</v>
+        <v>142.735</v>
       </c>
       <c r="F556">
         <v>100</v>
@@ -11547,10 +11547,10 @@
         <v>147.706</v>
       </c>
       <c r="D557">
-        <v>166.764</v>
+        <v>166.765</v>
       </c>
       <c r="E557">
-        <v>143.389</v>
+        <v>143.39</v>
       </c>
       <c r="F557">
         <v>100</v>
@@ -11570,7 +11570,7 @@
         <v>168.43</v>
       </c>
       <c r="E558">
-        <v>144.923</v>
+        <v>144.924</v>
       </c>
       <c r="F558">
         <v>100</v>
@@ -11584,10 +11584,10 @@
         <v>124.606</v>
       </c>
       <c r="C559">
-        <v>150.966</v>
+        <v>150.967</v>
       </c>
       <c r="D559">
-        <v>169.8</v>
+        <v>169.801</v>
       </c>
       <c r="E559">
         <v>147.498</v>
@@ -11607,10 +11607,10 @@
         <v>152.84</v>
       </c>
       <c r="D560">
-        <v>170.283</v>
+        <v>170.284</v>
       </c>
       <c r="E560">
-        <v>150.281</v>
+        <v>150.282</v>
       </c>
       <c r="F560">
         <v>100</v>
@@ -11621,10 +11621,10 @@
         <v>45419</v>
       </c>
       <c r="B561">
-        <v>123.184</v>
+        <v>123.185</v>
       </c>
       <c r="C561">
-        <v>151.384</v>
+        <v>151.385</v>
       </c>
       <c r="D561">
         <v>170.295</v>
@@ -11644,13 +11644,13 @@
         <v>122.676</v>
       </c>
       <c r="C562">
-        <v>150.827</v>
+        <v>150.828</v>
       </c>
       <c r="D562">
-        <v>170.227</v>
+        <v>170.228</v>
       </c>
       <c r="E562">
-        <v>148.864</v>
+        <v>148.865</v>
       </c>
       <c r="F562">
         <v>100</v>
@@ -11661,13 +11661,13 @@
         <v>45421</v>
       </c>
       <c r="B563">
-        <v>121.982</v>
+        <v>121.983</v>
       </c>
       <c r="C563">
         <v>149.69</v>
       </c>
       <c r="D563">
-        <v>170.026</v>
+        <v>170.027</v>
       </c>
       <c r="E563">
         <v>149.152</v>
@@ -11681,16 +11681,16 @@
         <v>45422</v>
       </c>
       <c r="B564">
-        <v>125.255</v>
+        <v>125.256</v>
       </c>
       <c r="C564">
-        <v>149.74</v>
+        <v>149.741</v>
       </c>
       <c r="D564">
         <v>167.564</v>
       </c>
       <c r="E564">
-        <v>149.075</v>
+        <v>149.076</v>
       </c>
       <c r="F564">
         <v>100</v>
@@ -11701,13 +11701,13 @@
         <v>45425</v>
       </c>
       <c r="B565">
-        <v>123.61</v>
+        <v>123.611</v>
       </c>
       <c r="C565">
-        <v>149.2</v>
+        <v>149.201</v>
       </c>
       <c r="D565">
-        <v>167.274</v>
+        <v>167.275</v>
       </c>
       <c r="E565">
         <v>146.639</v>
@@ -11721,16 +11721,16 @@
         <v>45426</v>
       </c>
       <c r="B566">
-        <v>121.817</v>
+        <v>121.818</v>
       </c>
       <c r="C566">
-        <v>148.914</v>
+        <v>148.915</v>
       </c>
       <c r="D566">
-        <v>166.463</v>
+        <v>166.464</v>
       </c>
       <c r="E566">
-        <v>145.989</v>
+        <v>145.99</v>
       </c>
       <c r="F566">
         <v>100</v>
@@ -11741,13 +11741,13 @@
         <v>45427</v>
       </c>
       <c r="B567">
-        <v>121.972</v>
+        <v>121.973</v>
       </c>
       <c r="C567">
         <v>149.03</v>
       </c>
       <c r="D567">
-        <v>166.507</v>
+        <v>166.508</v>
       </c>
       <c r="E567">
         <v>145.639</v>
@@ -11767,10 +11767,10 @@
         <v>149.161</v>
       </c>
       <c r="D568">
-        <v>166.183</v>
+        <v>166.184</v>
       </c>
       <c r="E568">
-        <v>145.412</v>
+        <v>145.413</v>
       </c>
       <c r="F568">
         <v>100</v>
@@ -11781,16 +11781,16 @@
         <v>45429</v>
       </c>
       <c r="B569">
-        <v>122.589</v>
+        <v>123.206</v>
       </c>
       <c r="C569">
-        <v>147.09</v>
+        <v>147.83</v>
       </c>
       <c r="D569">
-        <v>164.842</v>
+        <v>165.672</v>
       </c>
       <c r="E569">
-        <v>143.687</v>
+        <v>144.41</v>
       </c>
       <c r="F569">
         <v>100</v>
@@ -11804,10 +11804,10 @@
         <v>121.33</v>
       </c>
       <c r="C570">
-        <v>146.111</v>
+        <v>146.112</v>
       </c>
       <c r="D570">
-        <v>163.492</v>
+        <v>163.493</v>
       </c>
       <c r="E570">
         <v>142.509</v>
@@ -11827,7 +11827,7 @@
         <v>144.913</v>
       </c>
       <c r="D571">
-        <v>162.377</v>
+        <v>162.378</v>
       </c>
       <c r="E571">
         <v>140.033</v>
@@ -11841,13 +11841,13 @@
         <v>45434</v>
       </c>
       <c r="B572">
-        <v>120.955</v>
+        <v>120.956</v>
       </c>
       <c r="C572">
-        <v>142.358</v>
+        <v>142.359</v>
       </c>
       <c r="D572">
-        <v>159.278</v>
+        <v>159.279</v>
       </c>
       <c r="E572">
         <v>137.425</v>
@@ -11861,7 +11861,7 @@
         <v>45435</v>
       </c>
       <c r="B573">
-        <v>119.606</v>
+        <v>119.607</v>
       </c>
       <c r="C573">
         <v>140.296</v>
@@ -11887,10 +11887,10 @@
         <v>143.612</v>
       </c>
       <c r="D574">
-        <v>160.073</v>
+        <v>160.074</v>
       </c>
       <c r="E574">
-        <v>137.496</v>
+        <v>137.497</v>
       </c>
       <c r="F574">
         <v>100</v>
@@ -11901,16 +11901,16 @@
         <v>45439</v>
       </c>
       <c r="B575">
-        <v>122.729</v>
+        <v>122.73</v>
       </c>
       <c r="C575">
         <v>145.374</v>
       </c>
       <c r="D575">
-        <v>162.492</v>
+        <v>162.493</v>
       </c>
       <c r="E575">
-        <v>139.332</v>
+        <v>139.333</v>
       </c>
       <c r="F575">
         <v>100</v>
@@ -11921,16 +11921,16 @@
         <v>45440</v>
       </c>
       <c r="B576">
-        <v>122.528</v>
+        <v>122.529</v>
       </c>
       <c r="C576">
-        <v>144.928</v>
+        <v>144.929</v>
       </c>
       <c r="D576">
-        <v>162.628</v>
+        <v>162.629</v>
       </c>
       <c r="E576">
-        <v>140.688</v>
+        <v>140.689</v>
       </c>
       <c r="F576">
         <v>100</v>
@@ -11941,16 +11941,16 @@
         <v>45441</v>
       </c>
       <c r="B577">
-        <v>120.818</v>
+        <v>120.819</v>
       </c>
       <c r="C577">
-        <v>144.588</v>
+        <v>144.589</v>
       </c>
       <c r="D577">
         <v>161.177</v>
       </c>
       <c r="E577">
-        <v>140.847</v>
+        <v>140.848</v>
       </c>
       <c r="F577">
         <v>100</v>
@@ -11964,13 +11964,13 @@
         <v>121.122</v>
       </c>
       <c r="C578">
-        <v>145.908</v>
+        <v>145.909</v>
       </c>
       <c r="D578">
-        <v>163.663</v>
+        <v>163.664</v>
       </c>
       <c r="E578">
-        <v>141.665</v>
+        <v>141.666</v>
       </c>
       <c r="F578">
         <v>100</v>
@@ -11984,13 +11984,13 @@
         <v>121.37</v>
       </c>
       <c r="C579">
-        <v>146.421</v>
+        <v>146.422</v>
       </c>
       <c r="D579">
         <v>163.665</v>
       </c>
       <c r="E579">
-        <v>141.024</v>
+        <v>141.025</v>
       </c>
       <c r="F579">
         <v>100</v>
@@ -12010,7 +12010,7 @@
         <v>162.472</v>
       </c>
       <c r="E580">
-        <v>141.222</v>
+        <v>141.223</v>
       </c>
       <c r="F580">
         <v>100</v>
@@ -12024,7 +12024,7 @@
         <v>118.662</v>
       </c>
       <c r="C581">
-        <v>144.361</v>
+        <v>144.362</v>
       </c>
       <c r="D581">
         <v>158.846</v>
@@ -15615,10 +15615,10 @@
         <v>45049</v>
       </c>
       <c r="B325">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C325">
-        <v>0.638</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -15629,7 +15629,7 @@
         <v>469</v>
       </c>
       <c r="C326">
-        <v>-0.638</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -17903,10 +17903,10 @@
         <v>45363</v>
       </c>
       <c r="B533">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="C533">
-        <v>2.482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -17917,7 +17917,7 @@
         <v>1035</v>
       </c>
       <c r="C534">
-        <v>1.46</v>
+        <v>2.941</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -17947,10 +17947,10 @@
         <v>45369</v>
       </c>
       <c r="B537">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="C537">
-        <v>0</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -17961,7 +17961,7 @@
         <v>1025</v>
       </c>
       <c r="C538">
-        <v>0</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -18376,10 +18376,10 @@
         <v>45429</v>
       </c>
       <c r="B576">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="C576">
-        <v>1.802</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -18390,7 +18390,7 @@
         <v>1180</v>
       </c>
       <c r="C577">
-        <v>5.219</v>
+        <v>6.567</v>
       </c>
     </row>
     <row r="578" spans="1:3">

--- a/data/output/rs_analysis.xlsx
+++ b/data/output/rs_analysis.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F581"/>
+  <dimension ref="A1:F587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3961,16 +3961,16 @@
         <v>44826</v>
       </c>
       <c r="B178">
-        <v>102.223</v>
+        <v>102.762</v>
       </c>
       <c r="C178">
-        <v>97.14</v>
+        <v>97.652</v>
       </c>
       <c r="D178">
-        <v>147.55</v>
+        <v>148.329</v>
       </c>
       <c r="E178">
-        <v>111.382</v>
+        <v>111.97</v>
       </c>
       <c r="F178">
         <v>100</v>
@@ -4741,16 +4741,16 @@
         <v>44883</v>
       </c>
       <c r="B217">
-        <v>107.308</v>
+        <v>107.558</v>
       </c>
       <c r="C217">
-        <v>84.824</v>
+        <v>85.02200000000001</v>
       </c>
       <c r="D217">
-        <v>149.669</v>
+        <v>150.019</v>
       </c>
       <c r="E217">
-        <v>121.175</v>
+        <v>121.458</v>
       </c>
       <c r="F217">
         <v>100</v>
@@ -7201,16 +7201,16 @@
         <v>45077</v>
       </c>
       <c r="B340">
-        <v>127.203</v>
+        <v>127.619</v>
       </c>
       <c r="C340">
-        <v>110.161</v>
+        <v>110.521</v>
       </c>
       <c r="D340">
-        <v>153.253</v>
+        <v>153.754</v>
       </c>
       <c r="E340">
-        <v>126.032</v>
+        <v>126.444</v>
       </c>
       <c r="F340">
         <v>100</v>
@@ -7581,16 +7581,16 @@
         <v>45107</v>
       </c>
       <c r="B359">
-        <v>125.546</v>
+        <v>125.682</v>
       </c>
       <c r="C359">
-        <v>132.397</v>
+        <v>132.54</v>
       </c>
       <c r="D359">
-        <v>171.747</v>
+        <v>171.933</v>
       </c>
       <c r="E359">
-        <v>153.748</v>
+        <v>153.915</v>
       </c>
       <c r="F359">
         <v>100</v>
@@ -8441,16 +8441,16 @@
         <v>45170</v>
       </c>
       <c r="B402">
-        <v>126.159</v>
+        <v>126.924</v>
       </c>
       <c r="C402">
-        <v>127.898</v>
+        <v>128.674</v>
       </c>
       <c r="D402">
-        <v>157.258</v>
+        <v>158.212</v>
       </c>
       <c r="E402">
-        <v>140.217</v>
+        <v>141.068</v>
       </c>
       <c r="F402">
         <v>100</v>
@@ -10761,16 +10761,16 @@
         <v>45351</v>
       </c>
       <c r="B518">
-        <v>119.554</v>
+        <v>118.895</v>
       </c>
       <c r="C518">
-        <v>132.508</v>
+        <v>131.778</v>
       </c>
       <c r="D518">
-        <v>156.908</v>
+        <v>156.043</v>
       </c>
       <c r="E518">
-        <v>143.193</v>
+        <v>142.404</v>
       </c>
       <c r="F518">
         <v>100</v>
@@ -10781,16 +10781,16 @@
         <v>45352</v>
       </c>
       <c r="B519">
-        <v>122.296</v>
+        <v>121.402</v>
       </c>
       <c r="C519">
-        <v>133.011</v>
+        <v>132.038</v>
       </c>
       <c r="D519">
-        <v>158.897</v>
+        <v>157.734</v>
       </c>
       <c r="E519">
-        <v>144.666</v>
+        <v>143.607</v>
       </c>
       <c r="F519">
         <v>100</v>
@@ -10801,16 +10801,16 @@
         <v>45355</v>
       </c>
       <c r="B520">
-        <v>121.155</v>
+        <v>119.593</v>
       </c>
       <c r="C520">
-        <v>133.258</v>
+        <v>131.539</v>
       </c>
       <c r="D520">
-        <v>160.922</v>
+        <v>158.846</v>
       </c>
       <c r="E520">
-        <v>144.044</v>
+        <v>142.187</v>
       </c>
       <c r="F520">
         <v>100</v>
@@ -10821,16 +10821,16 @@
         <v>45356</v>
       </c>
       <c r="B521">
-        <v>119.434</v>
+        <v>119.661</v>
       </c>
       <c r="C521">
-        <v>131.289</v>
+        <v>131.54</v>
       </c>
       <c r="D521">
-        <v>159.117</v>
+        <v>159.42</v>
       </c>
       <c r="E521">
-        <v>142.415</v>
+        <v>142.686</v>
       </c>
       <c r="F521">
         <v>100</v>
@@ -10841,16 +10841,16 @@
         <v>45357</v>
       </c>
       <c r="B522">
-        <v>119.275</v>
+        <v>118.354</v>
       </c>
       <c r="C522">
-        <v>134.017</v>
+        <v>132.982</v>
       </c>
       <c r="D522">
-        <v>160.902</v>
+        <v>159.66</v>
       </c>
       <c r="E522">
-        <v>141.565</v>
+        <v>140.472</v>
       </c>
       <c r="F522">
         <v>100</v>
@@ -10861,16 +10861,16 @@
         <v>45358</v>
       </c>
       <c r="B523">
-        <v>120.133</v>
+        <v>120.37</v>
       </c>
       <c r="C523">
-        <v>134.268</v>
+        <v>134.533</v>
       </c>
       <c r="D523">
-        <v>160.079</v>
+        <v>160.395</v>
       </c>
       <c r="E523">
-        <v>140.295</v>
+        <v>140.571</v>
       </c>
       <c r="F523">
         <v>100</v>
@@ -10881,16 +10881,16 @@
         <v>45359</v>
       </c>
       <c r="B524">
-        <v>119.277</v>
+        <v>119.747</v>
       </c>
       <c r="C524">
-        <v>134.349</v>
+        <v>134.878</v>
       </c>
       <c r="D524">
-        <v>159.4</v>
+        <v>160.028</v>
       </c>
       <c r="E524">
-        <v>141.88</v>
+        <v>142.439</v>
       </c>
       <c r="F524">
         <v>100</v>
@@ -10901,16 +10901,16 @@
         <v>45362</v>
       </c>
       <c r="B525">
-        <v>117.843</v>
+        <v>117.388</v>
       </c>
       <c r="C525">
-        <v>132.165</v>
+        <v>131.653</v>
       </c>
       <c r="D525">
-        <v>157.81</v>
+        <v>157.2</v>
       </c>
       <c r="E525">
-        <v>139.802</v>
+        <v>139.262</v>
       </c>
       <c r="F525">
         <v>100</v>
@@ -11001,16 +11001,16 @@
         <v>45369</v>
       </c>
       <c r="B530">
-        <v>120.501</v>
+        <v>120.047</v>
       </c>
       <c r="C530">
-        <v>138.317</v>
+        <v>137.797</v>
       </c>
       <c r="D530">
-        <v>162.644</v>
+        <v>162.032</v>
       </c>
       <c r="E530">
-        <v>143.75</v>
+        <v>143.209</v>
       </c>
       <c r="F530">
         <v>100</v>
@@ -11041,16 +11041,16 @@
         <v>45371</v>
       </c>
       <c r="B532">
-        <v>124.791</v>
+        <v>124.56</v>
       </c>
       <c r="C532">
-        <v>138.962</v>
+        <v>138.704</v>
       </c>
       <c r="D532">
-        <v>162.444</v>
+        <v>162.143</v>
       </c>
       <c r="E532">
-        <v>146.698</v>
+        <v>146.426</v>
       </c>
       <c r="F532">
         <v>100</v>
@@ -11121,16 +11121,16 @@
         <v>45377</v>
       </c>
       <c r="B536">
-        <v>126.712</v>
+        <v>126.952</v>
       </c>
       <c r="C536">
-        <v>140.101</v>
+        <v>140.366</v>
       </c>
       <c r="D536">
-        <v>164.09</v>
+        <v>164.401</v>
       </c>
       <c r="E536">
-        <v>146.183</v>
+        <v>146.46</v>
       </c>
       <c r="F536">
         <v>100</v>
@@ -12001,16 +12001,16 @@
         <v>45446</v>
       </c>
       <c r="B580">
-        <v>121.193</v>
+        <v>121.404</v>
       </c>
       <c r="C580">
-        <v>146.174</v>
+        <v>146.763</v>
       </c>
       <c r="D580">
-        <v>162.472</v>
+        <v>162.825</v>
       </c>
       <c r="E580">
-        <v>141.223</v>
+        <v>140.807</v>
       </c>
       <c r="F580">
         <v>100</v>
@@ -12033,6 +12033,126 @@
         <v>138.143</v>
       </c>
       <c r="F581">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6">
+      <c r="A582" s="2">
+        <v>45448</v>
+      </c>
+      <c r="B582">
+        <v>118.817</v>
+      </c>
+      <c r="C582">
+        <v>144.654</v>
+      </c>
+      <c r="D582">
+        <v>160.074</v>
+      </c>
+      <c r="E582">
+        <v>139.099</v>
+      </c>
+      <c r="F582">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6">
+      <c r="A583" s="2">
+        <v>45449</v>
+      </c>
+      <c r="B583">
+        <v>117.115</v>
+      </c>
+      <c r="C583">
+        <v>142.819</v>
+      </c>
+      <c r="D583">
+        <v>158.823</v>
+      </c>
+      <c r="E583">
+        <v>137.094</v>
+      </c>
+      <c r="F583">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6">
+      <c r="A584" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B584">
+        <v>117.514</v>
+      </c>
+      <c r="C584">
+        <v>142.493</v>
+      </c>
+      <c r="D584">
+        <v>158.285</v>
+      </c>
+      <c r="E584">
+        <v>138.141</v>
+      </c>
+      <c r="F584">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6">
+      <c r="A585" s="2">
+        <v>45453</v>
+      </c>
+      <c r="B585">
+        <v>117.061</v>
+      </c>
+      <c r="C585">
+        <v>142.61</v>
+      </c>
+      <c r="D585">
+        <v>158.185</v>
+      </c>
+      <c r="E585">
+        <v>137.994</v>
+      </c>
+      <c r="F585">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6">
+      <c r="A586" s="2">
+        <v>45454</v>
+      </c>
+      <c r="B586">
+        <v>116.543</v>
+      </c>
+      <c r="C586">
+        <v>142.793</v>
+      </c>
+      <c r="D586">
+        <v>157.663</v>
+      </c>
+      <c r="E586">
+        <v>137.59</v>
+      </c>
+      <c r="F586">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
+      <c r="A587" s="2">
+        <v>45455</v>
+      </c>
+      <c r="B587">
+        <v>116.144</v>
+      </c>
+      <c r="C587">
+        <v>144.052</v>
+      </c>
+      <c r="D587">
+        <v>158.309</v>
+      </c>
+      <c r="E587">
+        <v>138.051</v>
+      </c>
+      <c r="F587">
         <v>100</v>
       </c>
     </row>
@@ -12043,7 +12163,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C588"/>
+  <dimension ref="A1:C594"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14020,10 +14140,10 @@
         <v>44826</v>
       </c>
       <c r="B180">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>-0.699</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -14034,7 +14154,7 @@
         <v>287</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -14449,10 +14569,10 @@
         <v>44883</v>
       </c>
       <c r="B219">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>-0.326</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -14463,7 +14583,7 @@
         <v>308</v>
       </c>
       <c r="C220">
-        <v>0.325</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -15813,10 +15933,10 @@
         <v>45077</v>
       </c>
       <c r="B343">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C343">
-        <v>0.203</v>
+        <v>-0.407</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -15827,7 +15947,7 @@
         <v>490</v>
       </c>
       <c r="C344">
-        <v>-0.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -16033,10 +16153,10 @@
         <v>45107</v>
       </c>
       <c r="B363">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C363">
-        <v>0</v>
+        <v>-0.203</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -16047,7 +16167,7 @@
         <v>495</v>
       </c>
       <c r="C364">
-        <v>0.202</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -16506,10 +16626,10 @@
         <v>45170</v>
       </c>
       <c r="B406">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -16520,7 +16640,7 @@
         <v>730</v>
       </c>
       <c r="C407">
-        <v>-0.6830000000000001</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -17815,10 +17935,10 @@
         <v>45351</v>
       </c>
       <c r="B525">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="C525">
-        <v>-1.446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -17826,10 +17946,10 @@
         <v>45352</v>
       </c>
       <c r="B526">
-        <v>1030</v>
+        <v>1050</v>
       </c>
       <c r="C526">
-        <v>0</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -17837,10 +17957,10 @@
         <v>45355</v>
       </c>
       <c r="B527">
-        <v>1015</v>
+        <v>1050</v>
       </c>
       <c r="C527">
-        <v>-1.467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -17848,10 +17968,10 @@
         <v>45356</v>
       </c>
       <c r="B528">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C528">
-        <v>0</v>
+        <v>-3.884</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -17859,10 +17979,10 @@
         <v>45357</v>
       </c>
       <c r="B529">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="C529">
-        <v>-2.494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -17870,10 +17990,10 @@
         <v>45358</v>
       </c>
       <c r="B530">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C530">
-        <v>0</v>
+        <v>-2.506</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -17881,10 +18001,10 @@
         <v>45359</v>
       </c>
       <c r="B531">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C531">
-        <v>0.504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -17892,10 +18012,10 @@
         <v>45362</v>
       </c>
       <c r="B532">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="C532">
-        <v>0</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -17906,7 +18026,7 @@
         <v>1005</v>
       </c>
       <c r="C533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -17947,10 +18067,10 @@
         <v>45369</v>
       </c>
       <c r="B537">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="C537">
-        <v>-0.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -17961,7 +18081,7 @@
         <v>1025</v>
       </c>
       <c r="C538">
-        <v>0.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -17969,10 +18089,10 @@
         <v>45371</v>
       </c>
       <c r="B539">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="C539">
-        <v>0.487</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -17983,7 +18103,7 @@
         <v>1030</v>
       </c>
       <c r="C540">
-        <v>0</v>
+        <v>-0.484</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -18013,10 +18133,10 @@
         <v>45377</v>
       </c>
       <c r="B543">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C543">
-        <v>0</v>
+        <v>-0.491</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -18027,7 +18147,7 @@
         <v>1010</v>
       </c>
       <c r="C544">
-        <v>-0.985</v>
+        <v>-0.494</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -18512,6 +18632,72 @@
       </c>
       <c r="C588">
         <v>2.4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="2">
+        <v>45448</v>
+      </c>
+      <c r="B589">
+        <v>1250</v>
+      </c>
+      <c r="C589">
+        <v>-1.193</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="2">
+        <v>45449</v>
+      </c>
+      <c r="B590">
+        <v>1250</v>
+      </c>
+      <c r="C590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B591">
+        <v>1265</v>
+      </c>
+      <c r="C591">
+        <v>1.193</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="2">
+        <v>45453</v>
+      </c>
+      <c r="B592">
+        <v>1280</v>
+      </c>
+      <c r="C592">
+        <v>1.179</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="2">
+        <v>45454</v>
+      </c>
+      <c r="B593">
+        <v>1295</v>
+      </c>
+      <c r="C593">
+        <v>1.165</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="2">
+        <v>45455</v>
+      </c>
+      <c r="B594">
+        <v>1285</v>
+      </c>
+      <c r="C594">
+        <v>-0.775</v>
       </c>
     </row>
   </sheetData>
@@ -18521,7 +18707,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C588"/>
+  <dimension ref="A1:C594"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24975,10 +25161,10 @@
         <v>45446</v>
       </c>
       <c r="B587">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="C587">
-        <v>0.493</v>
+        <v>1.081</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -24989,7 +25175,73 @@
         <v>975</v>
       </c>
       <c r="C588">
-        <v>-4.217</v>
+        <v>-4.806</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="2">
+        <v>45448</v>
+      </c>
+      <c r="B589">
+        <v>965.5</v>
+      </c>
+      <c r="C589">
+        <v>-0.979</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="2">
+        <v>45449</v>
+      </c>
+      <c r="B590">
+        <v>920.5</v>
+      </c>
+      <c r="C590">
+        <v>-4.773</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B591">
+        <v>944</v>
+      </c>
+      <c r="C591">
+        <v>2.521</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="2">
+        <v>45453</v>
+      </c>
+      <c r="B592">
+        <v>945</v>
+      </c>
+      <c r="C592">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="2">
+        <v>45454</v>
+      </c>
+      <c r="B593">
+        <v>944</v>
+      </c>
+      <c r="C593">
+        <v>-0.106</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="2">
+        <v>45455</v>
+      </c>
+      <c r="B594">
+        <v>925</v>
+      </c>
+      <c r="C594">
+        <v>-2.033</v>
       </c>
     </row>
   </sheetData>
@@ -24999,7 +25251,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C589"/>
+  <dimension ref="A1:C595"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31464,10 +31716,10 @@
         <v>45446</v>
       </c>
       <c r="B588">
-        <v>4377</v>
+        <v>4449.5</v>
       </c>
       <c r="C588">
-        <v>0.5</v>
+        <v>2.143</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -31478,7 +31730,73 @@
         <v>4307.8</v>
       </c>
       <c r="C589">
-        <v>-1.594</v>
+        <v>-3.236</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="2">
+        <v>45448</v>
+      </c>
+      <c r="B590">
+        <v>4269</v>
+      </c>
+      <c r="C590">
+        <v>-0.905</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="2">
+        <v>45449</v>
+      </c>
+      <c r="B591">
+        <v>4055</v>
+      </c>
+      <c r="C591">
+        <v>-5.143</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B592">
+        <v>4087</v>
+      </c>
+      <c r="C592">
+        <v>0.786</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="2">
+        <v>45453</v>
+      </c>
+      <c r="B593">
+        <v>4170</v>
+      </c>
+      <c r="C593">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="2">
+        <v>45454</v>
+      </c>
+      <c r="B594">
+        <v>4262</v>
+      </c>
+      <c r="C594">
+        <v>2.182</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="2">
+        <v>45455</v>
+      </c>
+      <c r="B595">
+        <v>4368</v>
+      </c>
+      <c r="C595">
+        <v>2.457</v>
       </c>
     </row>
   </sheetData>
@@ -31488,7 +31806,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C586"/>
+  <dimension ref="A1:C592"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37920,10 +38238,10 @@
         <v>45446</v>
       </c>
       <c r="B585">
-        <v>28480</v>
+        <v>28761.9</v>
       </c>
       <c r="C585">
-        <v>-1.999</v>
+        <v>-1.014</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -37934,7 +38252,73 @@
         <v>26739.25</v>
       </c>
       <c r="C586">
-        <v>-6.307</v>
+        <v>-7.292</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="2">
+        <v>45448</v>
+      </c>
+      <c r="B587">
+        <v>27156</v>
+      </c>
+      <c r="C587">
+        <v>1.547</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="2">
+        <v>45449</v>
+      </c>
+      <c r="B588">
+        <v>26220</v>
+      </c>
+      <c r="C588">
+        <v>-3.508</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B589">
+        <v>26320</v>
+      </c>
+      <c r="C589">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="2">
+        <v>45453</v>
+      </c>
+      <c r="B590">
+        <v>26740</v>
+      </c>
+      <c r="C590">
+        <v>1.583</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="2">
+        <v>45454</v>
+      </c>
+      <c r="B591">
+        <v>26837.1</v>
+      </c>
+      <c r="C591">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="2">
+        <v>45455</v>
+      </c>
+      <c r="B592">
+        <v>27000</v>
+      </c>
+      <c r="C592">
+        <v>0.605</v>
       </c>
     </row>
   </sheetData>
@@ -37944,7 +38328,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:C591"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44365,10 +44749,10 @@
         <v>45446</v>
       </c>
       <c r="B584">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="C584">
-        <v>1.699</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -44379,7 +44763,73 @@
         <v>1070</v>
       </c>
       <c r="C585">
-        <v>-5.279</v>
+        <v>-4.12</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="2">
+        <v>45448</v>
+      </c>
+      <c r="B586">
+        <v>1081.1</v>
+      </c>
+      <c r="C586">
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="2">
+        <v>45449</v>
+      </c>
+      <c r="B587">
+        <v>1022</v>
+      </c>
+      <c r="C587">
+        <v>-5.622</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B588">
+        <v>1069.95</v>
+      </c>
+      <c r="C588">
+        <v>4.585</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="2">
+        <v>45453</v>
+      </c>
+      <c r="B589">
+        <v>1083</v>
+      </c>
+      <c r="C589">
+        <v>1.212</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="2">
+        <v>45454</v>
+      </c>
+      <c r="B590">
+        <v>1088</v>
+      </c>
+      <c r="C590">
+        <v>0.461</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="2">
+        <v>45455</v>
+      </c>
+      <c r="B591">
+        <v>1090.6</v>
+      </c>
+      <c r="C591">
+        <v>0.239</v>
       </c>
     </row>
   </sheetData>
